--- a/biology/Zoologie/Berger_de_Russie_méridionale/Berger_de_Russie_méridionale.xlsx
+++ b/biology/Zoologie/Berger_de_Russie_méridionale/Berger_de_Russie_méridionale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Berger_de_Russie_m%C3%A9ridionale</t>
+          <t>Berger_de_Russie_méridionale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le berger de Russie méridionale ou berger de l'Ukraine ((ru)Українська вівчарка) est un chien de berger destiné à la garde des troupeaux de moutons en Russie et en Ukraine. La  Fédération cynologique internationale le reconnaît sous le nom de ioujnorousskaïa ovtcharka mais on le désigne aussi sous les noms de Ovtcharka de Russie méridionale, ou encore Youjak.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Berger_de_Russie_m%C3%A9ridionale</t>
+          <t>Berger_de_Russie_méridionale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aspect général est celui d'un ours, du fait de sa robe, qui mesure de dix à quinze centimètres de long. Il est le plus souvent blanc, mais parfois gris ou beige. C'est un chien de grande taille, vif et alerte, à la musculature puissante et dont les réactions sont foudroyantes.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Berger_de_Russie_m%C3%A9ridionale</t>
+          <t>Berger_de_Russie_méridionale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une très ancienne race russe. En effet, dès 1797, on importa d'Espagne des moutons à toison fine et avec eux l'ancêtre du Youjak : le berger des Asturies.
 Les bergers de Crimée s'intéressèrent à ce gardien de troupeau qui possédait d'excellentes qualités de travail. Il fut alors mêlé à cette race du sang de berger de Tatarie, de barzoï et de Rousskaïa Psovaïa (ancienne race russe qui a disparu à l'heure actuelle). La race a été développée et améliorée dans la localité d'Askanïa-Nova en Crimée.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Berger_de_Russie_m%C3%A9ridionale</t>
+          <t>Berger_de_Russie_méridionale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Caractère et comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Fierté de l'élevage russe, le berger de Russie méridionale est un chien de grande stature, mais très élégant et sans aucune lourdeur, vif à la course, à la mâchoire puissante et aux réflexes constamment en alerte.
 Le Youjak est un chien de garde et de protection, aux qualités bergères incontestables.
